--- a/data/btmobile25a_codebook.xlsx
+++ b/data/btmobile25a_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida.sharepoint.com/teams/TheSocialScienceCollaboratory/Shared Documents/btmpact/btmobile/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtaka\Documents\GitHub\btmobile\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{8E5201CA-2594-42B0-8A1A-612EE9832508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF58C4F-7F6D-41B3-8049-17838DE12216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="-3516" windowWidth="20376" windowHeight="12096" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="2110" windowWidth="19200" windowHeight="11180" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_raw&amp;binded_.Rds" sheetId="3" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="DF.oa.combined.Rds" sheetId="7" r:id="rId4"/>
     <sheet name="DF.alt.combined.scrambled.Rds" sheetId="8" r:id="rId5"/>
     <sheet name="DF.full.combined.scrambled.Rds" sheetId="9" r:id="rId6"/>
+    <sheet name="btmobile25a_EventList" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Coles, Nicholas A. - Personal View" guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}" mergeInterval="0" personalView="1" xWindow="8" yWindow="46" windowWidth="1496" windowHeight="928" activeSheetId="2"/>
     <customWorkbookView name="João  Francisco Takayanagi - Personal View" guid="{7132C25E-1518-452F-9442-61459E247037}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="736" activeSheetId="3"/>
-    <customWorkbookView name="Coles, Nicholas A. - Personal View" guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}" mergeInterval="0" personalView="1" xWindow="8" yWindow="46" windowWidth="1496" windowHeight="928" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Variable</t>
   </si>
@@ -146,6 +147,81 @@
   </si>
   <si>
     <t>Category to which the work belongs, according to the key word that was used to search the OpenAlex database</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Descri[tion</t>
+  </si>
+  <si>
+    <t>Date of Emergence</t>
+  </si>
+  <si>
+    <t>Reviewed Date</t>
+  </si>
+  <si>
+    <t>Date description</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Search term</t>
+  </si>
+  <si>
+    <t># Openalex</t>
+  </si>
+  <si>
+    <t># 3 years before</t>
+  </si>
+  <si>
+    <t># 3 years after</t>
+  </si>
+  <si>
+    <t>Ratio of increase</t>
+  </si>
+  <si>
+    <t>Short description of the Urgent Societal Event provided by Claude 3.7 Sonnet</t>
+  </si>
+  <si>
+    <t>Name of the Urgent Societal Event that took place within the 21st century provided by Claude 3.7 Sonnet</t>
+  </si>
+  <si>
+    <t>Approximate date of emergence of the Urgent Societal Event provided by Claude 3.7 Sonnet</t>
+  </si>
+  <si>
+    <t>Manually revised Date of Emergence if no significant event occurred in the date provided by Claude 3.7 Sonnett</t>
+  </si>
+  <si>
+    <t>Manually researched event that marked the emergence date of the Urgent Societal Event</t>
+  </si>
+  <si>
+    <t>Keywords suggested by Claude 3.7 Sonnett to search the Urgent Societal Event in scientific repositories.</t>
+  </si>
+  <si>
+    <t>Manually defined search terms used to search the Urgent Societal Event in the OpenAlex data set.</t>
+  </si>
+  <si>
+    <t>Total number of works retrieved from the OpenAlex data set using a full text search with the Urgent Societal Event's search term</t>
+  </si>
+  <si>
+    <t>Number of works retrieved from the OpenAlex data set using a full text search with the Urgent Societal Event's search term and filtering to the 3 years prior to the date of emergence</t>
+  </si>
+  <si>
+    <t>Number of works retrieved from the OpenAlex data set using a full text search with the Urgent Societal Event's search term and filtering to the year of the date of emergence and the two following years</t>
+  </si>
+  <si>
+    <t>Ratio of works published in the three years after the emergence of the event by works published in the three years prior to the emergence of the event</t>
+  </si>
+  <si>
+    <t>Date in "Month day year" format</t>
+  </si>
+  <si>
+    <t>Numeric integer</t>
+  </si>
+  <si>
+    <t>Numeric fraction</t>
   </si>
 </sst>
 </file>
@@ -198,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,9 +284,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,95 +627,95 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{7132C25E-1518-452F-9442-61459E247037}">
       <selection activeCell="A13" sqref="A13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
-      <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -655,17 +728,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -685,7 +758,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -694,33 +767,33 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7132C25E-1518-452F-9442-61459E247037}" scale="99">
+    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}" scale="150">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}" scale="150">
+    <customSheetView guid="{7132C25E-1518-452F-9442-61459E247037}" scale="99">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -737,14 +810,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -763,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -771,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -779,7 +852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -787,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -795,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -805,12 +878,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{7132C25E-1518-452F-9442-61459E247037}">
       <selection activeCell="B5" sqref="B5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
-      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -826,15 +899,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="30.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -853,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -861,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -869,7 +942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -877,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -890,12 +963,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{7132C25E-1518-452F-9442-61459E247037}">
       <selection activeCell="H7" sqref="H7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
-      <selection activeCell="B4" sqref="B4:C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -911,14 +984,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,15 +1002,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -945,7 +1018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -955,12 +1028,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
+      <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{7132C25E-1518-452F-9442-61459E247037}">
       <selection activeCell="C4" sqref="A3:C4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
-      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -972,18 +1045,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8519935B-1724-4782-B849-A9B3F75DCB9B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1076,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1085,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1021,7 +1094,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1030,7 +1103,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1041,7 +1114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1049,7 +1122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1059,12 +1132,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
+      <selection activeCell="C3" sqref="C3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{7132C25E-1518-452F-9442-61459E247037}" topLeftCell="A3">
       <selection activeCell="E7" sqref="E7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6BF304AB-2CA1-C44E-A6D9-5D676232ADD1}">
-      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1072,7 +1145,164 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AFCB19-5A09-4F9E-9C8F-E033BE2CCD09}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7cc633b7-a0d7-44f6-9ebf-b0bcc1d1386b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f1ebdc78-f2a0-4ed8-b1e0-396e97b61f03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E9A67939B0F2B4787EAA086EFF368F8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4fa69c3089d4cdebbf63e5e785ed240">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7cc633b7-a0d7-44f6-9ebf-b0bcc1d1386b" xmlns:ns3="f1ebdc78-f2a0-4ed8-b1e0-396e97b61f03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7260015c60489b8949593346e476abd3" ns2:_="" ns3:_="">
     <xsd:import namespace="7cc633b7-a0d7-44f6-9ebf-b0bcc1d1386b"/>
@@ -1273,27 +1503,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AE73911-384B-44D1-A5F2-6EFDAB2AA810}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f1ebdc78-f2a0-4ed8-b1e0-396e97b61f03"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7cc633b7-a0d7-44f6-9ebf-b0bcc1d1386b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7cc633b7-a0d7-44f6-9ebf-b0bcc1d1386b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f1ebdc78-f2a0-4ed8-b1e0-396e97b61f03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58C75C0-75B5-404E-AA31-E3941B1724D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC13B024-22A8-4AC9-95C0-83E8C69B4D4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1310,29 +1545,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58C75C0-75B5-404E-AA31-E3941B1724D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AE73911-384B-44D1-A5F2-6EFDAB2AA810}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f1ebdc78-f2a0-4ed8-b1e0-396e97b61f03"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7cc633b7-a0d7-44f6-9ebf-b0bcc1d1386b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>